--- a/t1_confection/B1_Default_Param.xlsx
+++ b/t1_confection/B1_Default_Param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\5_Artículos EPERLab\0_In_progress\RESP\_multipurpose_model_fmwk\t1_confection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-Decarb_RD/Documentos compartidos/Decarb_RD/WBG/4_Model/RD_Model_v7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E942496-18E5-47FC-8C2D-DF60754A591D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BA3F5-0266-4D9A-A39A-6F81F37B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-3855" windowWidth="28110" windowHeight="16440" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_Values" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,15 +555,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90BEE7-74F3-4D80-B77F-CF05A093532F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -579,15 +581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -595,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -603,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -611,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -619,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -627,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -635,7 +637,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -643,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -651,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -667,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -675,7 +677,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -683,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -691,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -699,7 +701,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -715,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -723,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -731,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -739,15 +741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -755,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -763,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -771,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -779,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -787,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -803,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -811,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -819,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -827,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -843,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -851,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -867,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -875,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -891,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -899,23 +901,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -923,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -931,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -939,15 +941,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -955,15 +957,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>99999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -971,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -979,7 +981,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -993,10 +995,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BAD73B84EC2FBA4AB6031CFB79C3D0E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="371947e8e2760f0f8e8f59c32e4ad2a0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4f98862-adfd-4d9c-a945-852f80f0eb51" xmlns:ns3="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a059f82d0b353b49693c069f8347eedf" ns2:_="" ns3:_="">
-    <xsd:import namespace="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-    <xsd:import namespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1005,15 +1007,17 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -1022,7 +1026,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c4f98862-adfd-4d9c-a945-852f80f0eb51" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1035,55 +1039,67 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b9355cc9-2d41-4aa9-bfbc-bd016a1e1a01" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1102,7 +1118,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1119,8 +1135,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1218,10 +1234,28 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD0A8ACB-EE96-44B0-997A-EFCAD69D8961}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B525AE-5BAE-45B0-AA19-E7B3199CE9C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4A3813-D7D5-4F21-9075-B4C49CB07CD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}"/>
 </file>
--- a/t1_confection/B1_Default_Param.xlsx
+++ b/t1_confection/B1_Default_Param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-Decarb_RD/Documentos compartidos/Decarb_RD/WBG/4_Model/RD_Model_v7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Downloads\RD_Model_v20240613\RD_Model_v20240613\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BA3F5-0266-4D9A-A39A-6F81F37B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B777F42-6C98-479E-B4B8-5022BB1BC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_Values" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90BEE7-74F3-4D80-B77F-CF05A093532F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.05</v>
+        <v>5.04E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,15 +1226,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -1244,18 +1235,48 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B525AE-5BAE-45B0-AA19-E7B3199CE9C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B525AE-5BAE-45B0-AA19-E7B3199CE9C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}"/>
 </file>
--- a/t1_confection/B1_Default_Param.xlsx
+++ b/t1_confection/B1_Default_Param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Downloads\RD_Model_v20240613\RD_Model_v20240613\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\5_Artículos EPERLab\0_In_progress\RESP\_multipurpose_model_fmwk\t1_confection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B777F42-6C98-479E-B4B8-5022BB1BC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E942496-18E5-47FC-8C2D-DF60754A591D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
+    <workbookView xWindow="-27990" yWindow="-3855" windowWidth="28110" windowHeight="16440" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_Values" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +297,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,17 +555,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90BEE7-74F3-4D80-B77F-CF05A093532F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -581,15 +579,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -597,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -605,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -613,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -621,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -629,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -637,7 +635,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -645,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -653,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -661,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -669,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -677,7 +675,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -685,7 +683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -693,15 +691,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5.04E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -709,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -717,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -725,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -741,15 +739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -757,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -765,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -773,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -781,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -789,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -797,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -805,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -813,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -821,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -829,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -837,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -845,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -853,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -861,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -869,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -877,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -885,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -893,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -901,23 +899,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -925,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -941,15 +939,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -957,15 +955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>99999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -973,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -981,7 +979,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -995,10 +993,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
-    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F74FB0E003A88C4B9D9793633BA4B356" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0b91461ea42f649c0e2a912844849d59">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d55314f-45f1-40c9-9fce-63556e193d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dde1a2dc8a4a80923ccdd7c7b3969d3" ns2:_="">
+    <xsd:import namespace="0d55314f-45f1-40c9-9fce-63556e193d03"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1007,18 +1004,15 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1026,7 +1020,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d55314f-45f1-40c9-9fce-63556e193d03" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1039,26 +1033,33 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -1071,58 +1072,14 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1135,8 +1092,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1226,16 +1183,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1244,39 +1191,24 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d55314f-45f1-40c9-9fce-63556e193d03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B525AE-5BAE-45B0-AA19-E7B3199CE9C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCD82CE-0AE9-48F9-B35C-8F95C597480F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B63010B1-DCFD-459D-9A94-0597FB3E1193}"/>
 </file>
--- a/t1_confection/B1_Default_Param.xlsx
+++ b/t1_confection/B1_Default_Param.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Downloads\RD_Model_v20240613\RD_Model_v20240613\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-Decarb_RD/Documentos compartidos/Decarb_RD/WBG/4_Model/RD_Model_v7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B777F42-6C98-479E-B4B8-5022BB1BC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BA3F5-0266-4D9A-A39A-6F81F37B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11235" xr2:uid="{3D89E3D1-8F1A-4219-BF0E-B7FA6DD47AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_Values" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90BEE7-74F3-4D80-B77F-CF05A093532F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5.04E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,8 +995,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -1226,6 +1226,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -1235,48 +1244,18 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B525AE-5BAE-45B0-AA19-E7B3199CE9C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DAC7BA1-B7D7-4C03-8E10-D6C6203CFC14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5ADD9B66-4C76-449D-B320-D0F5D284B142}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE435B3-C6E0-4714-98EF-03FDB106B841}"/>
 </file>